--- a/tabibi/740PC.xlsx
+++ b/tabibi/740PC.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e.tabibi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\H.haddadniya\RCM\مهندس طبیبی\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86B7E70-55E4-4409-8FBA-F451107E85B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{300D0F08-4E95-4A52-ACDB-C20529B460D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="740PC01" sheetId="1" r:id="rId1"/>
-    <sheet name="740PC02" sheetId="2" r:id="rId2"/>
+    <sheet name="0740PC01" sheetId="1" r:id="rId1"/>
+    <sheet name="0740PC02" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'740PC01'!$A$1:$K$129</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'740PC02'!$A$1:$K$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'0740PC01'!$A$1:$K$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'0740PC02'!$A$1:$K$129</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1276,12 +1275,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1310,13 +1309,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1754,30 +1753,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69485B8F-2D82-424E-86CE-B15DD73DF043}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="8" width="33.42578125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1"/>
+    <col min="7" max="8" width="33.375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="22.25" customWidth="1"/>
     <col min="10" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="25.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1812,7 +1811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="25.5">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>11</v>
@@ -1835,7 +1834,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="25.5">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="10" t="s">
@@ -1858,7 +1857,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
@@ -1883,7 +1882,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
@@ -1908,7 +1907,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
@@ -1933,7 +1932,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
@@ -1958,7 +1957,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="s">
@@ -1983,7 +1982,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="18.75">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16" t="s">
@@ -2006,7 +2005,7 @@
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14" t="s">
@@ -2029,7 +2028,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14" t="s">
@@ -2054,7 +2053,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14" t="s">
@@ -2079,7 +2078,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="18.75">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16" t="s">
@@ -2102,7 +2101,7 @@
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="14" t="s">
@@ -2127,7 +2126,7 @@
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14" t="s">
@@ -2152,7 +2151,7 @@
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14" t="s">
@@ -2177,7 +2176,7 @@
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14" t="s">
@@ -2202,7 +2201,7 @@
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14" t="s">
@@ -2225,7 +2224,7 @@
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14" t="s">
@@ -2250,7 +2249,7 @@
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14" t="s">
@@ -2273,7 +2272,7 @@
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="14" t="s">
@@ -2298,7 +2297,7 @@
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="14" t="s">
@@ -2323,7 +2322,7 @@
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="14" t="s">
@@ -2348,7 +2347,7 @@
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="14" t="s">
@@ -2373,7 +2372,7 @@
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="14" t="s">
@@ -2398,7 +2397,7 @@
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="14" t="s">
@@ -2421,7 +2420,7 @@
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14" t="s">
@@ -2444,7 +2443,7 @@
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14" t="s">
@@ -2467,7 +2466,7 @@
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14" t="s">
@@ -2490,7 +2489,7 @@
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14" t="s">
@@ -2515,7 +2514,7 @@
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14" t="s">
@@ -2540,7 +2539,7 @@
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14" t="s">
@@ -2565,7 +2564,7 @@
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14" t="s">
@@ -2590,7 +2589,7 @@
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14" t="s">
@@ -2615,7 +2614,7 @@
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14" t="s">
@@ -2640,7 +2639,7 @@
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14" t="s">
@@ -2665,7 +2664,7 @@
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="14" t="s">
@@ -2690,7 +2689,7 @@
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="14" t="s">
@@ -2715,7 +2714,7 @@
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="14" t="s">
@@ -2740,7 +2739,7 @@
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
     </row>
-    <row r="40" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="25.5">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="10" t="s">
@@ -2763,7 +2762,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="18.75">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="16" t="s">
@@ -2786,7 +2785,7 @@
       <c r="J41" s="15"/>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="14" t="s">
@@ -2809,7 +2808,7 @@
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="14" t="s">
@@ -2834,7 +2833,7 @@
       <c r="J43" s="13"/>
       <c r="K43" s="13"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14" t="s">
@@ -2859,7 +2858,7 @@
       <c r="J44" s="13"/>
       <c r="K44" s="13"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14" t="s">
@@ -2884,7 +2883,7 @@
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
     </row>
-    <row r="46" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="18.75">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="16" t="s">
@@ -2907,7 +2906,7 @@
       <c r="J46" s="15"/>
       <c r="K46" s="15"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14" t="s">
@@ -2930,7 +2929,7 @@
       <c r="J47" s="13"/>
       <c r="K47" s="13"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14" t="s">
@@ -2953,7 +2952,7 @@
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14" t="s">
@@ -2976,7 +2975,7 @@
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14" t="s">
@@ -2999,7 +2998,7 @@
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14" t="s">
@@ -3022,7 +3021,7 @@
       <c r="J51" s="13"/>
       <c r="K51" s="13"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14" t="s">
@@ -3045,7 +3044,7 @@
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14" t="s">
@@ -3070,7 +3069,7 @@
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14" t="s">
@@ -3093,7 +3092,7 @@
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14" t="s">
@@ -3118,7 +3117,7 @@
       <c r="J55" s="13"/>
       <c r="K55" s="13"/>
     </row>
-    <row r="56" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="18.75">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
       <c r="C56" s="16" t="s">
@@ -3141,7 +3140,7 @@
       <c r="J56" s="15"/>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14" t="s">
@@ -3164,7 +3163,7 @@
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14" t="s">
@@ -3187,7 +3186,7 @@
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14" t="s">
@@ -3210,7 +3209,7 @@
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14" t="s">
@@ -3233,7 +3232,7 @@
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14" t="s">
@@ -3256,7 +3255,7 @@
       <c r="J61" s="13"/>
       <c r="K61" s="13"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14" t="s">
@@ -3281,7 +3280,7 @@
       <c r="J62" s="13"/>
       <c r="K62" s="13"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14" t="s">
@@ -3306,7 +3305,7 @@
       <c r="J63" s="13"/>
       <c r="K63" s="13"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14" t="s">
@@ -3329,7 +3328,7 @@
       <c r="J64" s="13"/>
       <c r="K64" s="13"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14" t="s">
@@ -3354,7 +3353,7 @@
       <c r="J65" s="13"/>
       <c r="K65" s="13"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14" t="s">
@@ -3379,7 +3378,7 @@
       <c r="J66" s="13"/>
       <c r="K66" s="13"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14" t="s">
@@ -3404,7 +3403,7 @@
       <c r="J67" s="13"/>
       <c r="K67" s="13"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14" t="s">
@@ -3429,7 +3428,7 @@
       <c r="J68" s="13"/>
       <c r="K68" s="13"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14" t="s">
@@ -3454,7 +3453,7 @@
       <c r="J69" s="13"/>
       <c r="K69" s="13"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="14" t="s">
@@ -3479,7 +3478,7 @@
       <c r="J70" s="13"/>
       <c r="K70" s="13"/>
     </row>
-    <row r="71" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="18.75">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="16" t="s">
@@ -3502,7 +3501,7 @@
       <c r="J71" s="15"/>
       <c r="K71" s="15"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" s="13"/>
       <c r="B72" s="13"/>
       <c r="C72" s="14" t="s">
@@ -3527,7 +3526,7 @@
       <c r="J72" s="13"/>
       <c r="K72" s="13"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="C73" s="14" t="s">
@@ -3552,7 +3551,7 @@
       <c r="J73" s="13"/>
       <c r="K73" s="13"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="C74" s="14" t="s">
@@ -3577,7 +3576,7 @@
       <c r="J74" s="13"/>
       <c r="K74" s="13"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="C75" s="14" t="s">
@@ -3602,7 +3601,7 @@
       <c r="J75" s="13"/>
       <c r="K75" s="13"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="C76" s="14" t="s">
@@ -3627,7 +3626,7 @@
       <c r="J76" s="13"/>
       <c r="K76" s="13"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="C77" s="14" t="s">
@@ -3652,7 +3651,7 @@
       <c r="J77" s="13"/>
       <c r="K77" s="13"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="C78" s="14" t="s">
@@ -3677,7 +3676,7 @@
       <c r="J78" s="13"/>
       <c r="K78" s="13"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="C79" s="14" t="s">
@@ -3700,7 +3699,7 @@
       <c r="J79" s="13"/>
       <c r="K79" s="13"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" s="13"/>
       <c r="B80" s="13"/>
       <c r="C80" s="14" t="s">
@@ -3723,7 +3722,7 @@
       <c r="J80" s="13"/>
       <c r="K80" s="13"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11">
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="C81" s="14" t="s">
@@ -3748,7 +3747,7 @@
       <c r="J81" s="13"/>
       <c r="K81" s="13"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11">
       <c r="A82" s="13"/>
       <c r="B82" s="13"/>
       <c r="C82" s="14" t="s">
@@ -3773,7 +3772,7 @@
       <c r="J82" s="13"/>
       <c r="K82" s="13"/>
     </row>
-    <row r="83" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" ht="25.5">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="10" t="s">
@@ -3796,7 +3795,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="11"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11">
       <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="C84" s="14" t="s">
@@ -3821,7 +3820,7 @@
       <c r="J84" s="13"/>
       <c r="K84" s="13"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11">
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="C85" s="14" t="s">
@@ -3846,7 +3845,7 @@
       <c r="J85" s="13"/>
       <c r="K85" s="13"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11">
       <c r="A86" s="13"/>
       <c r="B86" s="13"/>
       <c r="C86" s="14" t="s">
@@ -3871,7 +3870,7 @@
       <c r="J86" s="13"/>
       <c r="K86" s="13"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11">
       <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="C87" s="14" t="s">
@@ -3894,7 +3893,7 @@
       <c r="J87" s="13"/>
       <c r="K87" s="13"/>
     </row>
-    <row r="88" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="18.75">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="16" t="s">
@@ -3917,7 +3916,7 @@
       <c r="J88" s="15"/>
       <c r="K88" s="15"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11">
       <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="C89" s="14" t="s">
@@ -3940,7 +3939,7 @@
       <c r="J89" s="13"/>
       <c r="K89" s="13"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11">
       <c r="A90" s="13"/>
       <c r="B90" s="13"/>
       <c r="C90" s="14" t="s">
@@ -3963,7 +3962,7 @@
       <c r="J90" s="13"/>
       <c r="K90" s="13"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11">
       <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="C91" s="14" t="s">
@@ -3988,7 +3987,7 @@
       <c r="J91" s="13"/>
       <c r="K91" s="13"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11">
       <c r="A92" s="13"/>
       <c r="B92" s="13"/>
       <c r="C92" s="14" t="s">
@@ -4013,7 +4012,7 @@
       <c r="J92" s="13"/>
       <c r="K92" s="13"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11">
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="C93" s="14" t="s">
@@ -4036,7 +4035,7 @@
       <c r="J93" s="13"/>
       <c r="K93" s="13"/>
     </row>
-    <row r="94" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="18.75">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="16" t="s">
@@ -4059,7 +4058,7 @@
       <c r="J94" s="15"/>
       <c r="K94" s="15"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11">
       <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="C95" s="14" t="s">
@@ -4082,7 +4081,7 @@
       <c r="J95" s="13"/>
       <c r="K95" s="13"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11">
       <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="C96" s="14" t="s">
@@ -4105,7 +4104,7 @@
       <c r="J96" s="13"/>
       <c r="K96" s="13"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11">
       <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="C97" s="14" t="s">
@@ -4130,7 +4129,7 @@
       <c r="J97" s="13"/>
       <c r="K97" s="13"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11">
       <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="C98" s="14" t="s">
@@ -4155,7 +4154,7 @@
       <c r="J98" s="13"/>
       <c r="K98" s="13"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11">
       <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="C99" s="14" t="s">
@@ -4180,7 +4179,7 @@
       <c r="J99" s="13"/>
       <c r="K99" s="13"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11">
       <c r="A100" s="13"/>
       <c r="B100" s="13"/>
       <c r="C100" s="14" t="s">
@@ -4203,7 +4202,7 @@
       <c r="J100" s="13"/>
       <c r="K100" s="13"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11">
       <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="C101" s="14" t="s">
@@ -4228,7 +4227,7 @@
       <c r="J101" s="13"/>
       <c r="K101" s="13"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11">
       <c r="A102" s="13"/>
       <c r="B102" s="13"/>
       <c r="C102" s="14" t="s">
@@ -4253,7 +4252,7 @@
       <c r="J102" s="13"/>
       <c r="K102" s="13"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11">
       <c r="A103" s="13"/>
       <c r="B103" s="13"/>
       <c r="C103" s="14" t="s">
@@ -4278,7 +4277,7 @@
       <c r="J103" s="13"/>
       <c r="K103" s="13"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11">
       <c r="A104" s="13"/>
       <c r="B104" s="13"/>
       <c r="C104" s="14" t="s">
@@ -4303,7 +4302,7 @@
       <c r="J104" s="13"/>
       <c r="K104" s="13"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11">
       <c r="A105" s="13"/>
       <c r="B105" s="13"/>
       <c r="C105" s="14" t="s">
@@ -4328,7 +4327,7 @@
       <c r="J105" s="13"/>
       <c r="K105" s="13"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11">
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
       <c r="C106" s="14" t="s">
@@ -4353,7 +4352,7 @@
       <c r="J106" s="13"/>
       <c r="K106" s="13"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11">
       <c r="A107" s="13"/>
       <c r="B107" s="13"/>
       <c r="C107" s="14" t="s">
@@ -4378,7 +4377,7 @@
       <c r="J107" s="13"/>
       <c r="K107" s="13"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11">
       <c r="A108" s="13"/>
       <c r="B108" s="13"/>
       <c r="C108" s="14" t="s">
@@ -4401,7 +4400,7 @@
       <c r="J108" s="13"/>
       <c r="K108" s="13"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11">
       <c r="A109" s="13"/>
       <c r="B109" s="13"/>
       <c r="C109" s="14" t="s">
@@ -4424,7 +4423,7 @@
       <c r="J109" s="13"/>
       <c r="K109" s="13"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11">
       <c r="A110" s="13"/>
       <c r="B110" s="13"/>
       <c r="C110" s="14" t="s">
@@ -4447,7 +4446,7 @@
       <c r="J110" s="13"/>
       <c r="K110" s="13"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11">
       <c r="A111" s="13"/>
       <c r="B111" s="13"/>
       <c r="C111" s="14" t="s">
@@ -4472,7 +4471,7 @@
       <c r="J111" s="13"/>
       <c r="K111" s="13"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11">
       <c r="A112" s="13"/>
       <c r="B112" s="13"/>
       <c r="C112" s="14" t="s">
@@ -4497,7 +4496,7 @@
       <c r="J112" s="13"/>
       <c r="K112" s="13"/>
     </row>
-    <row r="113" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" ht="25.5">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="10" t="s">
@@ -4520,7 +4519,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="11"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11">
       <c r="A114" s="13"/>
       <c r="B114" s="13"/>
       <c r="C114" s="14" t="s">
@@ -4543,7 +4542,7 @@
       <c r="J114" s="13"/>
       <c r="K114" s="13"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11">
       <c r="A115" s="13"/>
       <c r="B115" s="13"/>
       <c r="C115" s="14" t="s">
@@ -4566,7 +4565,7 @@
       <c r="J115" s="13"/>
       <c r="K115" s="13"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11">
       <c r="A116" s="13"/>
       <c r="B116" s="13"/>
       <c r="C116" s="14" t="s">
@@ -4589,7 +4588,7 @@
       <c r="J116" s="13"/>
       <c r="K116" s="13"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11">
       <c r="A117" s="13"/>
       <c r="B117" s="13"/>
       <c r="C117" s="14" t="s">
@@ -4614,7 +4613,7 @@
       <c r="J117" s="13"/>
       <c r="K117" s="13"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11">
       <c r="A118" s="13"/>
       <c r="B118" s="13"/>
       <c r="C118" s="14" t="s">
@@ -4639,7 +4638,7 @@
       <c r="J118" s="13"/>
       <c r="K118" s="13"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11">
       <c r="A119" s="13"/>
       <c r="B119" s="13"/>
       <c r="C119" s="14" t="s">
@@ -4664,7 +4663,7 @@
       <c r="J119" s="13"/>
       <c r="K119" s="13"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11">
       <c r="A120" s="13"/>
       <c r="B120" s="13"/>
       <c r="C120" s="14" t="s">
@@ -4689,7 +4688,7 @@
       <c r="J120" s="13"/>
       <c r="K120" s="13"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11">
       <c r="A121" s="13"/>
       <c r="B121" s="13"/>
       <c r="C121" s="14" t="s">
@@ -4714,7 +4713,7 @@
       <c r="J121" s="13"/>
       <c r="K121" s="13"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11">
       <c r="A122" s="13"/>
       <c r="B122" s="13"/>
       <c r="C122" s="14" t="s">
@@ -4739,7 +4738,7 @@
       <c r="J122" s="13"/>
       <c r="K122" s="13"/>
     </row>
-    <row r="123" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" ht="25.5">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="10" t="s">
@@ -4762,7 +4761,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="11"/>
     </row>
-    <row r="124" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" ht="25.5">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="10" t="s">
@@ -4785,7 +4784,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="11"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11">
       <c r="A125" s="13"/>
       <c r="B125" s="13"/>
       <c r="C125" s="14" t="s">
@@ -4808,7 +4807,7 @@
       <c r="J125" s="13"/>
       <c r="K125" s="13"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11">
       <c r="A126" s="13"/>
       <c r="B126" s="13"/>
       <c r="C126" s="14" t="s">
@@ -4831,7 +4830,7 @@
       <c r="J126" s="13"/>
       <c r="K126" s="13"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11">
       <c r="A127" s="13"/>
       <c r="B127" s="13"/>
       <c r="C127" s="14" t="s">
@@ -4854,7 +4853,7 @@
       <c r="J127" s="13"/>
       <c r="K127" s="13"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11">
       <c r="A128" s="13"/>
       <c r="B128" s="13"/>
       <c r="C128" s="14" t="s">
@@ -4877,7 +4876,7 @@
       <c r="J128" s="13"/>
       <c r="K128" s="13"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11">
       <c r="A129" s="13"/>
       <c r="B129" s="13"/>
       <c r="C129" s="14" t="s">
@@ -4901,7 +4900,7 @@
       <c r="K129" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K129" xr:uid="{69485B8F-2D82-424E-86CE-B15DD73DF043}"/>
+  <autoFilter ref="A1:K129"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4909,31 +4908,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE56A5C-C2C6-4027-A372-157F100BC64B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="34.5703125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1"/>
+    <col min="7" max="7" width="33.375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="34.625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="22.25" customWidth="1"/>
     <col min="10" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="25.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4968,7 +4967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="25.5">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>160</v>
@@ -4991,7 +4990,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="25.5">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="10" t="s">
@@ -5014,7 +5013,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
@@ -5039,7 +5038,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
@@ -5064,7 +5063,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
@@ -5089,7 +5088,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
@@ -5114,7 +5113,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="s">
@@ -5139,7 +5138,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="18.75">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16" t="s">
@@ -5162,7 +5161,7 @@
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14" t="s">
@@ -5185,7 +5184,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14" t="s">
@@ -5210,7 +5209,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14" t="s">
@@ -5235,7 +5234,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="18.75">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16" t="s">
@@ -5258,7 +5257,7 @@
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="14" t="s">
@@ -5283,7 +5282,7 @@
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14" t="s">
@@ -5308,7 +5307,7 @@
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14" t="s">
@@ -5333,7 +5332,7 @@
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14" t="s">
@@ -5358,7 +5357,7 @@
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14" t="s">
@@ -5381,7 +5380,7 @@
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14" t="s">
@@ -5406,7 +5405,7 @@
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14" t="s">
@@ -5429,7 +5428,7 @@
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="14" t="s">
@@ -5454,7 +5453,7 @@
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="14" t="s">
@@ -5479,7 +5478,7 @@
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="14" t="s">
@@ -5504,7 +5503,7 @@
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="14" t="s">
@@ -5529,7 +5528,7 @@
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="14" t="s">
@@ -5554,7 +5553,7 @@
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="14" t="s">
@@ -5577,7 +5576,7 @@
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14" t="s">
@@ -5600,7 +5599,7 @@
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14" t="s">
@@ -5623,7 +5622,7 @@
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14" t="s">
@@ -5646,7 +5645,7 @@
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14" t="s">
@@ -5671,7 +5670,7 @@
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14" t="s">
@@ -5696,7 +5695,7 @@
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14" t="s">
@@ -5721,7 +5720,7 @@
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14" t="s">
@@ -5746,7 +5745,7 @@
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14" t="s">
@@ -5771,7 +5770,7 @@
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14" t="s">
@@ -5796,7 +5795,7 @@
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14" t="s">
@@ -5821,7 +5820,7 @@
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="14" t="s">
@@ -5846,7 +5845,7 @@
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="14" t="s">
@@ -5871,7 +5870,7 @@
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="14" t="s">
@@ -5896,7 +5895,7 @@
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
     </row>
-    <row r="40" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="25.5">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="10" t="s">
@@ -5919,7 +5918,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="18.75">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="16" t="s">
@@ -5942,7 +5941,7 @@
       <c r="J41" s="15"/>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="14" t="s">
@@ -5965,7 +5964,7 @@
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="14" t="s">
@@ -5990,7 +5989,7 @@
       <c r="J43" s="13"/>
       <c r="K43" s="13"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14" t="s">
@@ -6015,7 +6014,7 @@
       <c r="J44" s="13"/>
       <c r="K44" s="13"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14" t="s">
@@ -6040,7 +6039,7 @@
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
     </row>
-    <row r="46" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="18.75">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="16" t="s">
@@ -6063,7 +6062,7 @@
       <c r="J46" s="15"/>
       <c r="K46" s="15"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14" t="s">
@@ -6086,7 +6085,7 @@
       <c r="J47" s="13"/>
       <c r="K47" s="13"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14" t="s">
@@ -6109,7 +6108,7 @@
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14" t="s">
@@ -6132,7 +6131,7 @@
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14" t="s">
@@ -6155,7 +6154,7 @@
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14" t="s">
@@ -6178,7 +6177,7 @@
       <c r="J51" s="13"/>
       <c r="K51" s="13"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14" t="s">
@@ -6201,7 +6200,7 @@
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14" t="s">
@@ -6226,7 +6225,7 @@
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14" t="s">
@@ -6249,7 +6248,7 @@
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14" t="s">
@@ -6274,7 +6273,7 @@
       <c r="J55" s="13"/>
       <c r="K55" s="13"/>
     </row>
-    <row r="56" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="18.75">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
       <c r="C56" s="16" t="s">
@@ -6297,7 +6296,7 @@
       <c r="J56" s="15"/>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14" t="s">
@@ -6320,7 +6319,7 @@
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14" t="s">
@@ -6343,7 +6342,7 @@
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14" t="s">
@@ -6366,7 +6365,7 @@
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14" t="s">
@@ -6389,7 +6388,7 @@
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14" t="s">
@@ -6412,7 +6411,7 @@
       <c r="J61" s="13"/>
       <c r="K61" s="13"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14" t="s">
@@ -6437,7 +6436,7 @@
       <c r="J62" s="13"/>
       <c r="K62" s="13"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14" t="s">
@@ -6462,7 +6461,7 @@
       <c r="J63" s="13"/>
       <c r="K63" s="13"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14" t="s">
@@ -6485,7 +6484,7 @@
       <c r="J64" s="13"/>
       <c r="K64" s="13"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14" t="s">
@@ -6510,7 +6509,7 @@
       <c r="J65" s="13"/>
       <c r="K65" s="13"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14" t="s">
@@ -6535,7 +6534,7 @@
       <c r="J66" s="13"/>
       <c r="K66" s="13"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14" t="s">
@@ -6560,7 +6559,7 @@
       <c r="J67" s="13"/>
       <c r="K67" s="13"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14" t="s">
@@ -6585,7 +6584,7 @@
       <c r="J68" s="13"/>
       <c r="K68" s="13"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14" t="s">
@@ -6610,7 +6609,7 @@
       <c r="J69" s="13"/>
       <c r="K69" s="13"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="14" t="s">
@@ -6635,7 +6634,7 @@
       <c r="J70" s="13"/>
       <c r="K70" s="13"/>
     </row>
-    <row r="71" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="18.75">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="16" t="s">
@@ -6658,7 +6657,7 @@
       <c r="J71" s="15"/>
       <c r="K71" s="15"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" s="13"/>
       <c r="B72" s="13"/>
       <c r="C72" s="14" t="s">
@@ -6683,7 +6682,7 @@
       <c r="J72" s="13"/>
       <c r="K72" s="13"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="C73" s="14" t="s">
@@ -6708,7 +6707,7 @@
       <c r="J73" s="13"/>
       <c r="K73" s="13"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="C74" s="14" t="s">
@@ -6733,7 +6732,7 @@
       <c r="J74" s="13"/>
       <c r="K74" s="13"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="C75" s="14" t="s">
@@ -6758,7 +6757,7 @@
       <c r="J75" s="13"/>
       <c r="K75" s="13"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="C76" s="14" t="s">
@@ -6783,7 +6782,7 @@
       <c r="J76" s="13"/>
       <c r="K76" s="13"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="C77" s="14" t="s">
@@ -6808,7 +6807,7 @@
       <c r="J77" s="13"/>
       <c r="K77" s="13"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="C78" s="14" t="s">
@@ -6833,7 +6832,7 @@
       <c r="J78" s="13"/>
       <c r="K78" s="13"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="C79" s="14" t="s">
@@ -6856,7 +6855,7 @@
       <c r="J79" s="13"/>
       <c r="K79" s="13"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" s="13"/>
       <c r="B80" s="13"/>
       <c r="C80" s="14" t="s">
@@ -6879,7 +6878,7 @@
       <c r="J80" s="13"/>
       <c r="K80" s="13"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11">
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="C81" s="14" t="s">
@@ -6904,7 +6903,7 @@
       <c r="J81" s="13"/>
       <c r="K81" s="13"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11">
       <c r="A82" s="13"/>
       <c r="B82" s="13"/>
       <c r="C82" s="14" t="s">
@@ -6929,7 +6928,7 @@
       <c r="J82" s="13"/>
       <c r="K82" s="13"/>
     </row>
-    <row r="83" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" ht="25.5">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="10" t="s">
@@ -6952,7 +6951,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="11"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11">
       <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="C84" s="14" t="s">
@@ -6977,7 +6976,7 @@
       <c r="J84" s="13"/>
       <c r="K84" s="13"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11">
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="C85" s="14" t="s">
@@ -7002,7 +7001,7 @@
       <c r="J85" s="13"/>
       <c r="K85" s="13"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11">
       <c r="A86" s="13"/>
       <c r="B86" s="13"/>
       <c r="C86" s="14" t="s">
@@ -7027,7 +7026,7 @@
       <c r="J86" s="13"/>
       <c r="K86" s="13"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11">
       <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="C87" s="14" t="s">
@@ -7050,7 +7049,7 @@
       <c r="J87" s="13"/>
       <c r="K87" s="13"/>
     </row>
-    <row r="88" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="18.75">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="16" t="s">
@@ -7073,7 +7072,7 @@
       <c r="J88" s="15"/>
       <c r="K88" s="15"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11">
       <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="C89" s="14" t="s">
@@ -7096,7 +7095,7 @@
       <c r="J89" s="13"/>
       <c r="K89" s="13"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11">
       <c r="A90" s="13"/>
       <c r="B90" s="13"/>
       <c r="C90" s="14" t="s">
@@ -7119,7 +7118,7 @@
       <c r="J90" s="13"/>
       <c r="K90" s="13"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11">
       <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="C91" s="14" t="s">
@@ -7144,7 +7143,7 @@
       <c r="J91" s="13"/>
       <c r="K91" s="13"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11">
       <c r="A92" s="13"/>
       <c r="B92" s="13"/>
       <c r="C92" s="14" t="s">
@@ -7169,7 +7168,7 @@
       <c r="J92" s="13"/>
       <c r="K92" s="13"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11">
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="C93" s="14" t="s">
@@ -7192,7 +7191,7 @@
       <c r="J93" s="13"/>
       <c r="K93" s="13"/>
     </row>
-    <row r="94" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="18.75">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="16" t="s">
@@ -7215,7 +7214,7 @@
       <c r="J94" s="15"/>
       <c r="K94" s="15"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11">
       <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="C95" s="14" t="s">
@@ -7238,7 +7237,7 @@
       <c r="J95" s="13"/>
       <c r="K95" s="13"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11">
       <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="C96" s="14" t="s">
@@ -7261,7 +7260,7 @@
       <c r="J96" s="13"/>
       <c r="K96" s="13"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11">
       <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="C97" s="14" t="s">
@@ -7286,7 +7285,7 @@
       <c r="J97" s="13"/>
       <c r="K97" s="13"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11">
       <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="C98" s="14" t="s">
@@ -7311,7 +7310,7 @@
       <c r="J98" s="13"/>
       <c r="K98" s="13"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11">
       <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="C99" s="14" t="s">
@@ -7336,7 +7335,7 @@
       <c r="J99" s="13"/>
       <c r="K99" s="13"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11">
       <c r="A100" s="13"/>
       <c r="B100" s="13"/>
       <c r="C100" s="14" t="s">
@@ -7359,7 +7358,7 @@
       <c r="J100" s="13"/>
       <c r="K100" s="13"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11">
       <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="C101" s="14" t="s">
@@ -7384,7 +7383,7 @@
       <c r="J101" s="13"/>
       <c r="K101" s="13"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11">
       <c r="A102" s="13"/>
       <c r="B102" s="13"/>
       <c r="C102" s="14" t="s">
@@ -7409,7 +7408,7 @@
       <c r="J102" s="13"/>
       <c r="K102" s="13"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11">
       <c r="A103" s="13"/>
       <c r="B103" s="13"/>
       <c r="C103" s="14" t="s">
@@ -7434,7 +7433,7 @@
       <c r="J103" s="13"/>
       <c r="K103" s="13"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11">
       <c r="A104" s="13"/>
       <c r="B104" s="13"/>
       <c r="C104" s="14" t="s">
@@ -7459,7 +7458,7 @@
       <c r="J104" s="13"/>
       <c r="K104" s="13"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11">
       <c r="A105" s="13"/>
       <c r="B105" s="13"/>
       <c r="C105" s="14" t="s">
@@ -7484,7 +7483,7 @@
       <c r="J105" s="13"/>
       <c r="K105" s="13"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11">
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
       <c r="C106" s="14" t="s">
@@ -7509,7 +7508,7 @@
       <c r="J106" s="13"/>
       <c r="K106" s="13"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11">
       <c r="A107" s="13"/>
       <c r="B107" s="13"/>
       <c r="C107" s="14" t="s">
@@ -7534,7 +7533,7 @@
       <c r="J107" s="13"/>
       <c r="K107" s="13"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11">
       <c r="A108" s="13"/>
       <c r="B108" s="13"/>
       <c r="C108" s="14" t="s">
@@ -7557,7 +7556,7 @@
       <c r="J108" s="13"/>
       <c r="K108" s="13"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11">
       <c r="A109" s="13"/>
       <c r="B109" s="13"/>
       <c r="C109" s="14" t="s">
@@ -7580,7 +7579,7 @@
       <c r="J109" s="13"/>
       <c r="K109" s="13"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11">
       <c r="A110" s="13"/>
       <c r="B110" s="13"/>
       <c r="C110" s="14" t="s">
@@ -7603,7 +7602,7 @@
       <c r="J110" s="13"/>
       <c r="K110" s="13"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11">
       <c r="A111" s="13"/>
       <c r="B111" s="13"/>
       <c r="C111" s="14" t="s">
@@ -7628,7 +7627,7 @@
       <c r="J111" s="13"/>
       <c r="K111" s="13"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11">
       <c r="A112" s="13"/>
       <c r="B112" s="13"/>
       <c r="C112" s="14" t="s">
@@ -7653,7 +7652,7 @@
       <c r="J112" s="13"/>
       <c r="K112" s="13"/>
     </row>
-    <row r="113" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" ht="25.5">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="10" t="s">
@@ -7676,7 +7675,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="11"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11">
       <c r="A114" s="13"/>
       <c r="B114" s="13"/>
       <c r="C114" s="14" t="s">
@@ -7699,7 +7698,7 @@
       <c r="J114" s="13"/>
       <c r="K114" s="13"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11">
       <c r="A115" s="13"/>
       <c r="B115" s="13"/>
       <c r="C115" s="14" t="s">
@@ -7722,7 +7721,7 @@
       <c r="J115" s="13"/>
       <c r="K115" s="13"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11">
       <c r="A116" s="13"/>
       <c r="B116" s="13"/>
       <c r="C116" s="14" t="s">
@@ -7745,7 +7744,7 @@
       <c r="J116" s="13"/>
       <c r="K116" s="13"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11">
       <c r="A117" s="13"/>
       <c r="B117" s="13"/>
       <c r="C117" s="14" t="s">
@@ -7770,7 +7769,7 @@
       <c r="J117" s="13"/>
       <c r="K117" s="13"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11">
       <c r="A118" s="13"/>
       <c r="B118" s="13"/>
       <c r="C118" s="14" t="s">
@@ -7795,7 +7794,7 @@
       <c r="J118" s="13"/>
       <c r="K118" s="13"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11">
       <c r="A119" s="13"/>
       <c r="B119" s="13"/>
       <c r="C119" s="14" t="s">
@@ -7820,7 +7819,7 @@
       <c r="J119" s="13"/>
       <c r="K119" s="13"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11">
       <c r="A120" s="13"/>
       <c r="B120" s="13"/>
       <c r="C120" s="14" t="s">
@@ -7845,7 +7844,7 @@
       <c r="J120" s="13"/>
       <c r="K120" s="13"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11">
       <c r="A121" s="13"/>
       <c r="B121" s="13"/>
       <c r="C121" s="14" t="s">
@@ -7870,7 +7869,7 @@
       <c r="J121" s="13"/>
       <c r="K121" s="13"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11">
       <c r="A122" s="13"/>
       <c r="B122" s="13"/>
       <c r="C122" s="14" t="s">
@@ -7895,7 +7894,7 @@
       <c r="J122" s="13"/>
       <c r="K122" s="13"/>
     </row>
-    <row r="123" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" ht="25.5">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="10" t="s">
@@ -7918,7 +7917,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="11"/>
     </row>
-    <row r="124" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" ht="25.5">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="10" t="s">
@@ -7941,7 +7940,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="11"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11">
       <c r="A125" s="13"/>
       <c r="B125" s="13"/>
       <c r="C125" s="14" t="s">
@@ -7964,7 +7963,7 @@
       <c r="J125" s="13"/>
       <c r="K125" s="13"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11">
       <c r="A126" s="13"/>
       <c r="B126" s="13"/>
       <c r="C126" s="14" t="s">
@@ -7987,7 +7986,7 @@
       <c r="J126" s="13"/>
       <c r="K126" s="13"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11">
       <c r="A127" s="13"/>
       <c r="B127" s="13"/>
       <c r="C127" s="14" t="s">
@@ -8010,7 +8009,7 @@
       <c r="J127" s="13"/>
       <c r="K127" s="13"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11">
       <c r="A128" s="13"/>
       <c r="B128" s="13"/>
       <c r="C128" s="14" t="s">
@@ -8033,7 +8032,7 @@
       <c r="J128" s="13"/>
       <c r="K128" s="13"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11">
       <c r="A129" s="13"/>
       <c r="B129" s="13"/>
       <c r="C129" s="14" t="s">
@@ -8057,7 +8056,7 @@
       <c r="K129" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K129" xr:uid="{69485B8F-2D82-424E-86CE-B15DD73DF043}"/>
+  <autoFilter ref="A1:K129"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
